--- a/medicine/Psychotrope/Leavenworth_2070_AD/Leavenworth_2070_AD.xlsx
+++ b/medicine/Psychotrope/Leavenworth_2070_AD/Leavenworth_2070_AD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leavenworth 2070 AD est un court-métrage américain, réalisé par l'équipe Harley's House Editorial en 1999.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme est emprisonné dans la prison de Leavenworth au Kansas. Chef d'inculpation : « Cet homme tuait 11 000 personnes par jour ».
 Impossible ! Mais comment faisait-il donc ?
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Leavenworth  Maximum Security Prison 2070 AD
 Réalisation et scénario : Harley's House Editorial
@@ -581,7 +597,9 @@
           <t>Diffusion du court métrage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce film est inclus intégralement dans le documentaire Tabac, la conspiration, diffusé sur RTBF (Belgique) le 4 janvier 2006 et rediffusé le 8 janvier. Un extrait est montré dans le documentaire Tabac : retenez votre souffle diffusé lui sur France 2 le 19 janvier 2006.
 </t>
